--- a/Implementation plan.xlsx
+++ b/Implementation plan.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\TPC-DI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{B34A9E0C-FF1F-4BA1-B5D4-80A01AC73F22}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C6C859-7716-4ADD-966C-C5C825895E69}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historical load" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Table</t>
   </si>
@@ -103,12 +103,18 @@
   </si>
   <si>
     <t>TradeType</t>
+  </si>
+  <si>
+    <t>DimBroker</t>
+  </si>
+  <si>
+    <t>HR.csv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -186,13 +192,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,10 +513,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -570,7 +579,7 @@
       <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="6"/>
       <c r="AM3" t="s">
         <v>10</v>
       </c>
@@ -586,7 +595,7 @@
       <c r="F4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="6"/>
       <c r="AM4" t="s">
         <v>11</v>
       </c>
@@ -598,7 +607,7 @@
       <c r="F5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="E6" s="3" t="s">
@@ -607,7 +616,7 @@
       <c r="F6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="E7" s="3" t="s">
@@ -616,147 +625,153 @@
       <c r="F7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="G17" s="6"/>
     </row>
     <row r="18" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="G19" s="6"/>
     </row>
     <row r="20" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="G20" s="6"/>
     </row>
     <row r="21" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="G21" s="6"/>
     </row>
     <row r="22" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="G22" s="6"/>
     </row>
     <row r="23" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="G23" s="6"/>
     </row>
     <row r="24" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="G24" s="6"/>
     </row>
     <row r="25" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="G27" s="6"/>
     </row>
     <row r="28" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="G28" s="6"/>
     </row>
     <row r="29" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="G29" s="6"/>
     </row>
     <row r="30" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="G30" s="6"/>
     </row>
     <row r="31" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="G31" s="6"/>
     </row>
     <row r="32" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+      <c r="G32" s="6"/>
     </row>
     <row r="33" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+      <c r="G33" s="6"/>
     </row>
     <row r="34" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
+      <c r="G34" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
-      <formula1>$AM$1:$AM$4</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G34" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>$AM$1:$AM$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Implementation plan.xlsx
+++ b/Implementation plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\TPC-DI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BDMA\Data warehouses\TPC_DI\TPC-DI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C6C859-7716-4ADD-966C-C5C825895E69}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD894841-866B-418D-97EA-CBFEE0C19324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historical load" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Table</t>
   </si>
@@ -517,7 +517,7 @@
   <dimension ref="A1:AM34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,7 +595,9 @@
       <c r="F4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="AM4" t="s">
         <v>11</v>
       </c>

--- a/Implementation plan.xlsx
+++ b/Implementation plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BDMA\Data warehouses\TPC_DI\TPC-DI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD894841-866B-418D-97EA-CBFEE0C19324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61439575-F637-4EF1-84BB-2004BE583DBD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historical load" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
   <si>
     <t>Table</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>HR.csv</t>
+  </si>
+  <si>
+    <t>DimCompany</t>
+  </si>
+  <si>
+    <t>FINWIRE</t>
   </si>
 </sst>
 </file>
@@ -192,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -200,6 +206,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,7 +524,7 @@
   <dimension ref="A1:AM34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,7 +532,7 @@
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -589,10 +596,10 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -641,9 +648,15 @@
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="6"/>
+      <c r="E9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="E10" s="3"/>

--- a/Implementation plan.xlsx
+++ b/Implementation plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\TPC-DI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61439575-F637-4EF1-84BB-2004BE583DBD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D620F54D-DD3B-4F99-970E-4C7E49A14663}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="28">
   <si>
     <t>Table</t>
   </si>
@@ -198,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -206,7 +206,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,7 +523,7 @@
   <dimension ref="A1:AM34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,13 +647,13 @@
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="2" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Implementation plan.xlsx
+++ b/Implementation plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\TPC-DI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D620F54D-DD3B-4F99-970E-4C7E49A14663}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F51A80-0249-4C93-A405-AEE8963B2C30}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>Table</t>
   </si>
@@ -115,6 +115,21 @@
   </si>
   <si>
     <t>FINWIRE</t>
+  </si>
+  <si>
+    <t>Financial</t>
+  </si>
+  <si>
+    <t>Prospect</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Similar implementation with DimCompany</t>
+  </si>
+  <si>
+    <t>Audit</t>
   </si>
 </sst>
 </file>
@@ -198,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -206,6 +221,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,7 +539,7 @@
   <dimension ref="A1:AM34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,6 +568,9 @@
       <c r="G1" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="H1" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="AM1" t="s">
         <v>9</v>
       </c>
@@ -658,22 +677,33 @@
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="E10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="E11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="6"/>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="E12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="E13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="6"/>
     </row>

--- a/Implementation plan.xlsx
+++ b/Implementation plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\TPC-DI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BDMA\Data warehouses\TPC_DI\TPC-DI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F51A80-0249-4C93-A405-AEE8963B2C30}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E125F254-7D35-4914-AAFD-7C1F811B2A33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historical load" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Table</t>
   </si>
@@ -213,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -222,6 +222,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,7 +578,7 @@
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -595,7 +596,7 @@
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -604,14 +605,16 @@
       <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="AM3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">

--- a/Implementation plan.xlsx
+++ b/Implementation plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BDMA\Data warehouses\TPC_DI\TPC-DI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E125F254-7D35-4914-AAFD-7C1F811B2A33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D71F19-5B8A-4FAD-9B27-F9DB6FE31222}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>Table</t>
   </si>
@@ -540,7 +540,7 @@
   <dimension ref="A1:AM34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,10 +599,10 @@
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -631,31 +631,37 @@
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="E8" s="2" t="s">

--- a/Implementation plan.xlsx
+++ b/Implementation plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BDMA\Data warehouses\TPC_DI\TPC-DI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\tmp\TPC-DI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D71F19-5B8A-4FAD-9B27-F9DB6FE31222}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3AC0FF-238C-460E-886C-4B62E801B9B8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historical load" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="34">
   <si>
     <t>Table</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>Audit</t>
+  </si>
+  <si>
+    <t>DimCustomer</t>
   </si>
 </sst>
 </file>
@@ -540,7 +543,7 @@
   <dimension ref="A1:AM34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,9 +720,13 @@
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="6"/>
+      <c r="E14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="E15" s="3"/>

--- a/Implementation plan.xlsx
+++ b/Implementation plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\tmp\TPC-DI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayadi\OneDrive\Documents\GitHub\TPC-DI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3AC0FF-238C-460E-886C-4B62E801B9B8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D20C68-622D-434D-A5E0-3D02333BE61F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="1590" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historical load" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>Table</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>DimCustomer</t>
+  </si>
+  <si>
+    <t>FactHoldings</t>
   </si>
 </sst>
 </file>
@@ -543,7 +546,7 @@
   <dimension ref="A1:AM34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,9 +732,13 @@
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="E15" s="3"/>
+      <c r="E15" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="6"/>
+      <c r="G15" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="E16" s="3"/>
@@ -830,7 +837,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G34" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G14 G16:G34" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$AM$1:$AM$5</formula1>
     </dataValidation>
   </dataValidations>

--- a/Implementation plan.xlsx
+++ b/Implementation plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayadi\OneDrive\Documents\GitHub\TPC-DI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D20C68-622D-434D-A5E0-3D02333BE61F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2AA7E1-AFD9-4462-8EBD-F66DD1679A9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1590" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2355" yWindow="2070" windowWidth="13470" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historical load" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>Table</t>
   </si>
@@ -136,6 +136,15 @@
   </si>
   <si>
     <t>FactHoldings</t>
+  </si>
+  <si>
+    <t>FactCashBalances</t>
+  </si>
+  <si>
+    <t>HoldingHistory.txt</t>
+  </si>
+  <si>
+    <t>CashTransaction.txt</t>
   </si>
 </sst>
 </file>
@@ -546,7 +555,7 @@
   <dimension ref="A1:AM34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,15 +744,23 @@
       <c r="E15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="G15" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="6"/>
+      <c r="E16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E17" s="3"/>

--- a/Implementation plan.xlsx
+++ b/Implementation plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayadi\OneDrive\Documents\GitHub\TPC-DI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\tmp\TPC-DI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2AA7E1-AFD9-4462-8EBD-F66DD1679A9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DD4A57-29E8-4F7E-B498-CA0A15E7902F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2355" yWindow="2070" windowWidth="13470" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historical load" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>Table</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>CashTransaction.txt</t>
+  </si>
+  <si>
+    <t>Still need to reflect the changes fo DimCustomer to DimAccount and implement the INACT property</t>
   </si>
 </sst>
 </file>
@@ -555,7 +558,7 @@
   <dimension ref="A1:AM34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,6 +742,9 @@
       <c r="G14" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="H14" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="E15" s="8" t="s">

--- a/Implementation plan.xlsx
+++ b/Implementation plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\tmp\TPC-DI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BDMA\Data warehouses\TPC_DI\TPC-DI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DD4A57-29E8-4F7E-B498-CA0A15E7902F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20DF5D7-3EB9-4DE5-9187-FE169BC18F9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historical load" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>Table</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Still need to reflect the changes fo DimCustomer to DimAccount and implement the INACT property</t>
+  </si>
+  <si>
+    <t>prospect.csv</t>
   </si>
 </sst>
 </file>
@@ -555,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM34"/>
+  <dimension ref="A1:AM33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,69 +707,75 @@
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="E10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="6"/>
+      <c r="E10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="E11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="6"/>
-      <c r="H11" t="s">
-        <v>31</v>
+      <c r="E11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="E12" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="E13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="6"/>
+      <c r="E13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="E14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="8"/>
+        <v>34</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="G14" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="E15" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="E16" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E17" s="3"/>
@@ -853,14 +862,9 @@
       <c r="F33" s="3"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="6"/>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G14 G16:G34" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G15:G33 G2:G13" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$AM$1:$AM$5</formula1>
     </dataValidation>
   </dataValidations>

--- a/Implementation plan.xlsx
+++ b/Implementation plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BDMA\Data warehouses\TPC_DI\TPC-DI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\tmp\TPC-DI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20DF5D7-3EB9-4DE5-9187-FE169BC18F9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C07EB4-74D2-4A03-867C-CA5D1778A9EF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historical load" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>Table</t>
   </si>
@@ -147,10 +147,16 @@
     <t>CashTransaction.txt</t>
   </si>
   <si>
-    <t>Still need to reflect the changes fo DimCustomer to DimAccount and implement the INACT property</t>
-  </si>
-  <si>
     <t>prospect.csv</t>
+  </si>
+  <si>
+    <t>Still need to reflect the changes fo DimCustomer to DimAccount</t>
+  </si>
+  <si>
+    <t>DimAccount</t>
+  </si>
+  <si>
+    <t>CustomerMgmt.csv</t>
   </si>
 </sst>
 </file>
@@ -560,9 +566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -570,7 +574,7 @@
     <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -725,7 +729,7 @@
         <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>11</v>
@@ -739,15 +743,17 @@
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8" t="s">
+      <c r="F13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
@@ -773,9 +779,15 @@
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="6"/>
+      <c r="E16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E17" s="3"/>

--- a/Implementation plan.xlsx
+++ b/Implementation plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\tmp\TPC-DI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C07EB4-74D2-4A03-867C-CA5D1778A9EF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F273484C-A217-4A59-B8D7-51DCB7E03D07}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5490" yWindow="3540" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historical load" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="42">
   <si>
     <t>Table</t>
   </si>
@@ -566,7 +566,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -779,13 +781,13 @@
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="2" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Implementation plan.xlsx
+++ b/Implementation plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\tmp\TPC-DI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F273484C-A217-4A59-B8D7-51DCB7E03D07}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB99EC8-AC05-4F3E-AF25-FABE29BF14AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5490" yWindow="3540" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="43">
   <si>
     <t>Table</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>CustomerMgmt.csv</t>
+  </si>
+  <si>
+    <t>DimSecurity</t>
   </si>
 </sst>
 </file>
@@ -567,7 +570,7 @@
   <dimension ref="A1:AM33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:G16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,9 +795,15 @@
       </c>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="6"/>
+      <c r="E17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E18" s="3"/>

--- a/Implementation plan.xlsx
+++ b/Implementation plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\tmp\TPC-DI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB99EC8-AC05-4F3E-AF25-FABE29BF14AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA2F3E6-1C2A-4C24-A380-A22987FE82AE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5490" yWindow="3540" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -570,7 +570,7 @@
   <dimension ref="A1:AM33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E17" sqref="E17:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,13 +795,13 @@
       </c>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="2" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Implementation plan.xlsx
+++ b/Implementation plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\tmp\TPC-DI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayadi\OneDrive\Documents\GitHub\TPC-DI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA2F3E6-1C2A-4C24-A380-A22987FE82AE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1F1506-84AA-4163-AF4D-C0A505C2F20A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5490" yWindow="3540" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historical load" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="43">
   <si>
     <t>Table</t>
   </si>
@@ -570,7 +570,7 @@
   <dimension ref="A1:AM33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:G17"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,13 +762,13 @@
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="2" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Implementation plan.xlsx
+++ b/Implementation plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayadi\OneDrive\Documents\GitHub\TPC-DI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\tmp\TPC-DI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1F1506-84AA-4163-AF4D-C0A505C2F20A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A03D3F-B073-4FF8-BE3D-79A03CF1E94B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historical load" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
   <si>
     <t>Table</t>
   </si>
@@ -160,6 +160,18 @@
   </si>
   <si>
     <t>DimSecurity</t>
+  </si>
+  <si>
+    <t>DimTrade</t>
+  </si>
+  <si>
+    <t>Trade.txt, TradeHistory.txt</t>
+  </si>
+  <si>
+    <t>FactWatches</t>
+  </si>
+  <si>
+    <t>FactMarketHistory</t>
   </si>
 </sst>
 </file>
@@ -569,17 +581,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -806,19 +816,33 @@
       </c>
     </row>
     <row r="18" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="6"/>
+      <c r="E18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="6"/>
+      <c r="E19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="20" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="6"/>
+      <c r="E20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="21" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E21" s="3"/>

--- a/Implementation plan.xlsx
+++ b/Implementation plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\tmp\TPC-DI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A03D3F-B073-4FF8-BE3D-79A03CF1E94B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BFC4F2-B9E7-4CD5-89F6-49E264426208}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -581,7 +581,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -816,13 +818,13 @@
       </c>
     </row>
     <row r="18" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="2" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Implementation plan.xlsx
+++ b/Implementation plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\tmp\TPC-DI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fun\Desktop\TPC-DI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BFC4F2-B9E7-4CD5-89F6-49E264426208}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F4B939-9607-4331-98E9-958FB322256F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historical load" sheetId="1" r:id="rId1"/>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,13 +728,13 @@
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H10" t="s">

--- a/Implementation plan.xlsx
+++ b/Implementation plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fun\Desktop\TPC-DI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\tmp 2\TPC-DI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F4B939-9607-4331-98E9-958FB322256F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E90B416-2CBA-4AED-82EE-6B39E24F9697}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historical load" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="51">
   <si>
     <t>Table</t>
   </si>
@@ -172,6 +172,18 @@
   </si>
   <si>
     <t>FactMarketHistory</t>
+  </si>
+  <si>
+    <t>DimCustomer_incemental</t>
+  </si>
+  <si>
+    <t>DimAccount_incemental</t>
+  </si>
+  <si>
+    <t>Customer.txt</t>
+  </si>
+  <si>
+    <t>Account.txt</t>
   </si>
 </sst>
 </file>
@@ -581,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +602,7 @@
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -847,14 +859,26 @@
       </c>
     </row>
     <row r="21" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="6"/>
+      <c r="E21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="22" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="6"/>
+      <c r="E22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="23" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E23" s="3"/>

--- a/Implementation plan.xlsx
+++ b/Implementation plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\tmp 2\TPC-DI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\tmp\TPC-DI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E90B416-2CBA-4AED-82EE-6B39E24F9697}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148DC729-3E53-482C-9003-0FB74A4FD29F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
   <si>
     <t>Table</t>
   </si>
@@ -184,6 +184,12 @@
   </si>
   <si>
     <t>Account.txt</t>
+  </si>
+  <si>
+    <t>DimTrade_incremental</t>
+  </si>
+  <si>
+    <t>Prospect_incremental</t>
   </si>
 </sst>
 </file>
@@ -593,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,11 +771,13 @@
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="6"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="E13" s="2" t="s">
@@ -881,14 +889,22 @@
       </c>
     </row>
     <row r="23" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="6"/>
+      <c r="E23" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="24" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="6"/>
+      <c r="E24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="25" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E25" s="3"/>

--- a/Implementation plan.xlsx
+++ b/Implementation plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\tmp\TPC-DI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\tmp2\TPC-DI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148DC729-3E53-482C-9003-0FB74A4FD29F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325BFA5F-582A-4ADF-8358-6A344633E2D4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="53">
   <si>
     <t>Table</t>
   </si>
@@ -600,7 +600,7 @@
   <dimension ref="A1:AM33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E23" sqref="E23:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,11 +889,11 @@
       </c>
     </row>
     <row r="23" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8" t="s">
+      <c r="F23" s="2"/>
+      <c r="G23" s="2" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Implementation plan.xlsx
+++ b/Implementation plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\tmp2\TPC-DI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fun\Desktop\TPC-DI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325BFA5F-582A-4ADF-8358-6A344633E2D4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66337693-D12D-4606-A49B-9EA2522C5C85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historical load" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
   <si>
     <t>Table</t>
   </si>
@@ -599,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23:G23"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,11 +771,11 @@
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8" t="s">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Implementation plan.xlsx
+++ b/Implementation plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fun\Desktop\TPC-DI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayadi\OneDrive\Documents\GitHub\TPC-DI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66337693-D12D-4606-A49B-9EA2522C5C85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B2A55D-AC73-4583-8670-5139DAD9FD6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historical load" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="53">
   <si>
     <t>Table</t>
   </si>
@@ -805,13 +805,13 @@
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="2" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Implementation plan.xlsx
+++ b/Implementation plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayadi\OneDrive\Documents\GitHub\TPC-DI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B2A55D-AC73-4583-8670-5139DAD9FD6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A49AD0-AFBA-49DA-B001-EA366A937FCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="54">
   <si>
     <t>Table</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>Prospect_incremental</t>
+  </si>
+  <si>
+    <t>FactHoldings_incremental</t>
   </si>
 </sst>
 </file>
@@ -599,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,9 +910,15 @@
       </c>
     </row>
     <row r="25" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="6"/>
+      <c r="E25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E26" s="3"/>
@@ -953,7 +962,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G15:G33 G2:G13" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G13 G15:G24 G26:G33" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$AM$1:$AM$5</formula1>
     </dataValidation>
   </dataValidations>

--- a/Implementation plan.xlsx
+++ b/Implementation plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayadi\OneDrive\Documents\GitHub\TPC-DI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A49AD0-AFBA-49DA-B001-EA366A937FCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AF81FA-2AC9-45E3-8E66-43D6DE0A7993}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
   <si>
     <t>Table</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>FactHoldings_incremental</t>
+  </si>
+  <si>
+    <t>FactCashBalances_incremental</t>
   </si>
 </sst>
 </file>
@@ -603,7 +606,7 @@
   <dimension ref="A1:AM33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,9 +924,15 @@
       </c>
     </row>
     <row r="26" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="6"/>
+      <c r="E26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E27" s="3"/>

--- a/Implementation plan.xlsx
+++ b/Implementation plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayadi\OneDrive\Documents\GitHub\TPC-DI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fun\Desktop\tpdi\TPC-DI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AF81FA-2AC9-45E3-8E66-43D6DE0A7993}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31ED327-6A45-48FB-808D-A96C031A093F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5115" yWindow="1020" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historical load" sheetId="1" r:id="rId1"/>
@@ -606,7 +606,7 @@
   <dimension ref="A1:AM33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E24" sqref="E24:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,11 +904,11 @@
       </c>
     </row>
     <row r="24" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8" t="s">
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
         <v>11</v>
       </c>
     </row>
